--- a/Auto2020/data/movie.xlsx
+++ b/Auto2020/data/movie.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C166A165-7242-4016-95E3-DCAF26FC0F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D8B10EB6-0752-4272-B97D-1B928C6E15B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="22284" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22308" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,37 +21,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>xpath</t>
+    <t>xpath=//input[@name='login_name']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abd</t>
+    <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abc</t>
+    <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xpathe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpathm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpathw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hjk</t>
+    <t>xpath=//input[@name='login_pass']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,10 +364,13 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -401,22 +388,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Auto2020/data/movie.xlsx
+++ b/Auto2020/data/movie.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D8B10EB6-0752-4272-B97D-1B928C6E15B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2CDF80BE-E183-4FBE-8C34-C38D5E5C78AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22308" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>xpath=//input[@name='login_name']</t>
+    <t>aaaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
+    <t>good</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
+    <t>hebei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xpath=//input[@name='login_pass']</t>
+    <t>yangjiale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43,7 +43,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +59,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,14 +87,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -361,35 +377,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
